--- a/inventario.xlsx
+++ b/inventario.xlsx
@@ -20,11 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -64,13 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1043,7 +1040,7 @@
           <t>raquisição</t>
         </is>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="2" t="n">
         <v>45738</v>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1065,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1108,99 +1105,99 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Caneta Azul</t>
+          <t>agua 500 ml</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Unidade</t>
+          <t>garrafas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Escritório</t>
+          <t>perecivel</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fornecedor A</t>
+          <t>fenix</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Caderno A5</t>
+          <t>agua 1 lt</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Unidade</t>
+          <t>garrafas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Escritório</t>
+          <t>perecivel</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fornecedor B</t>
+          <t>fenix</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Toner Impressora</t>
+          <t>sal 1 kg</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Unidade</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>perecivel</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fornecedor C</t>
+          <t>alan</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>agua 500 ml</t>
+          <t>farinha brancas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>garrafas</t>
+          <t>saco 50 kg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1210,17 +1207,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fenix</t>
+          <t>agua</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>agua 1 lt</t>
+          <t>arroz</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1228,7 +1225,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>garrafas</t>
+          <t xml:space="preserve">saco 5kg </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1238,53 +1235,53 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fenix</t>
+          <t>lumbra</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sal 1 kg</t>
+          <t>agua 2 lt</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>perecivel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>fenix</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
         <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>perecivel</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>alan</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>farinha brancas</t>
+          <t>agua 5 lt</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>saco 50 kg</t>
+          <t>garrafas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1292,27 +1289,23 @@
           <t>perecivel</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>agua</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>arroz</t>
+          <t>agua de coco 1 lt</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">saco 5kg </t>
+          <t>cx</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1320,27 +1313,23 @@
           <t>perecivel</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>lumbra</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>agua 2 lt</t>
+          <t xml:space="preserve">molho shoyo </t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>garrafa</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1348,27 +1337,23 @@
           <t>perecivel</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>fenix</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>agua 5 lt</t>
+          <t>chá maté 500 g</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>garrafas</t>
+          <t>pct</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1378,17 +1363,17 @@
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>agua de coco 1 lt</t>
+          <t xml:space="preserve">limão </t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1397,26 +1382,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>perecivel</t>
+          <t xml:space="preserve">hortifruti </t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">molho shoyo </t>
+          <t>maionese 500 g</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>garrafa</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1426,126 +1411,54 @@
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>chá maté 500 g</t>
+          <t>alan</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>pct</t>
+          <t>pessoa</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>perecivel</t>
+          <t>cansado</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">limão </t>
+          <t>teste2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>cx</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">hortifruti </t>
+          <t>3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>maionese 500 g</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>101</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>pt</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>perecivel</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>alan</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>pessoa</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>cansado</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>teste2</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
         <v>30</v>
       </c>
     </row>
